--- a/data/trans_camb/IP21B-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP21B-Habitat-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,18</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>16,83</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>15,04</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>17,7</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-10,63</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>11,39</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>10,37</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>9,13</t>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-20,23; 39,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-20,87; 37,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-19,92; 66,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,45; 41,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,87; 45,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-37,11; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-6,45; 30,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-9,48; 31,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-12,31; 48,82</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>46,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>125,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>141,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>166,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>95,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>86,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>76,48%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -821,12 +821,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-49,18; 713,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-65,95; 791,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>9,48</t>
+          <t>6,18</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,22</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>26,03</t>
+          <t>16,83</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>15,04</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>23,59</t>
+          <t>17,7</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-19,06</t>
+          <t>-10,63</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>6,99</t>
+          <t>11,39</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>14,32</t>
+          <t>10,37</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>18,7</t>
+          <t>9,13</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-14,99; 42,78</t>
+          <t>-20,23; 39,98</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-18,93; 42,61</t>
+          <t>-20,87; 37,42</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-12,23; 67,81</t>
+          <t>-19,92; 66,09</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-48,1; 38,14</t>
+          <t>-10,45; 41,51</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-39,27; 65,6</t>
+          <t>-6,87; 45,76</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,11; 0,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-15,81; 28,58</t>
+          <t>-6,45; 30,64</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-13,61; 42,34</t>
+          <t>-9,48; 31,8</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-14,45; 58,77</t>
+          <t>-12,31; 48,82</t>
         </is>
       </c>
     </row>
@@ -1170,27 +1170,27 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>77,63%</t>
+          <t>46,02%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>9,97%</t>
+          <t>-1,88%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>213,23%</t>
+          <t>125,24%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>5,77%</t>
+          <t>141,53%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>123,78%</t>
+          <t>166,57%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1200,17 +1200,17 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>50,02%</t>
+          <t>95,39%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>102,44%</t>
+          <t>86,88%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>133,85%</t>
+          <t>76,48%</t>
         </is>
       </c>
     </row>
@@ -1253,12 +1253,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-78,06; 708,38</t>
+          <t>-49,18; 713,98</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-77,54; 982,63</t>
+          <t>-65,95; 791,99</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1270,7 +1270,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>9,46</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>38,72</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>37,98</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,45</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,89</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>32,82</t>
         </is>
       </c>
     </row>
@@ -1333,12 +1333,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,15; 32,92</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,54; 90,33</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1358,22 +1358,22 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 83,19</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,45; 22,37</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,13; 58,21</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,13; 77,98</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>96,03%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>393,06%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="F18" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>144,49%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>366,09%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>636,24%</t>
         </is>
       </c>
     </row>
@@ -1486,7 +1486,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>9,46</t>
+          <t>9,48</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>38,72</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>26,03</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>23,59</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>37,98</t>
+          <t>-19,06</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>7,45</t>
+          <t>6,99</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>18,89</t>
+          <t>14,32</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>32,82</t>
+          <t>18,7</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-22,15; 32,92</t>
+          <t>-14,99; 42,78</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-10,54; 90,33</t>
+          <t>-18,93; 42,61</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,23; 67,81</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,1; 38,14</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,27; 65,6</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 83,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-7,45; 22,37</t>
+          <t>-15,81; 28,58</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-5,13; 58,21</t>
+          <t>-13,61; 42,34</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-5,13; 77,98</t>
+          <t>-14,45; 58,77</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>96,03%</t>
+          <t>77,63%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>393,06%</t>
+          <t>9,97%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>213,23%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,77%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>123,78%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>144,49%</t>
+          <t>50,02%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>366,09%</t>
+          <t>102,44%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>636,24%</t>
+          <t>133,85%</t>
         </is>
       </c>
     </row>
@@ -1685,12 +1685,12 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,06; 708,38</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,54; 982,63</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">

--- a/data/trans_camb/IP21B-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP21B-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -901,12 +901,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-85,74; 29,22</t>
+          <t>-85,68; 29,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-73,47; 40,06</t>
+          <t>-73,44; 40,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -916,32 +916,32 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-64,64; 0,0</t>
+          <t>-64,77; 0,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-64,64; 0,0</t>
+          <t>-64,77; 0,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-31,02; 77,96</t>
+          <t>-31,04; 83,93</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-48,58; 12,53</t>
+          <t>-57,66; 7,75</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-42,94; 23,01</t>
+          <t>-43,79; 23,06</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-41,12; 26,81</t>
+          <t>-43,65; 26,69</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-20,23; 39,98</t>
+          <t>-20,23; 41,23</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-20,87; 37,42</t>
+          <t>-26,93; 36,32</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-19,92; 66,09</t>
+          <t>-20,4; 65,21</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,45; 41,51</t>
+          <t>-7,21; 44,95</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,87; 45,76</t>
+          <t>-8,65; 46,08</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-37,11; 0,0</t>
+          <t>-32,75; 0,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-6,45; 30,64</t>
+          <t>-8,15; 30,02</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-9,48; 31,8</t>
+          <t>-7,96; 31,34</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-12,31; 48,82</t>
+          <t>-13,88; 46,91</t>
         </is>
       </c>
     </row>
@@ -1253,12 +1253,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-49,18; 713,98</t>
+          <t>-52,7; 731,33</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-65,95; 791,99</t>
+          <t>-63,34; 633,35</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1333,12 +1333,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-22,15; 32,92</t>
+          <t>-17,49; 33,41</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-10,54; 90,33</t>
+          <t>-10,09; 90,25</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1358,22 +1358,22 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 83,19</t>
+          <t>0,0; 76,93</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-7,45; 22,37</t>
+          <t>-10,09; 26,04</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-5,13; 58,21</t>
+          <t>-5,09; 56,18</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-5,13; 77,98</t>
+          <t>-5,28; 69,39</t>
         </is>
       </c>
     </row>
@@ -1549,27 +1549,27 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-14,99; 42,78</t>
+          <t>-17,6; 38,26</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-18,93; 42,61</t>
+          <t>-18,6; 42,07</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-12,23; 67,81</t>
+          <t>-12,3; 74,91</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-48,1; 38,14</t>
+          <t>-58,17; 37,43</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-39,27; 65,6</t>
+          <t>-38,35; 60,83</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -1579,17 +1579,17 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-15,81; 28,58</t>
+          <t>-15,14; 30,03</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-13,61; 42,34</t>
+          <t>-16,93; 41,45</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-14,45; 58,77</t>
+          <t>-14,37; 63,21</t>
         </is>
       </c>
     </row>
@@ -1685,12 +1685,12 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-78,06; 708,38</t>
+          <t>-72,02; —</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-77,54; 982,63</t>
+          <t>-100,0; 865,23</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-7,8; 21,64</t>
+          <t>-8,58; 19,9</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-8,19; 29,06</t>
+          <t>-6,92; 26,82</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-6,52; 43,45</t>
+          <t>-7,56; 39,91</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-7,84; 20,88</t>
+          <t>-8,86; 20,67</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 30,65</t>
+          <t>-3,34; 32,97</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 47,95</t>
+          <t>-5,54; 45,77</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 16,49</t>
+          <t>-3,23; 16,07</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 23,43</t>
+          <t>-0,47; 23,78</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 32,91</t>
+          <t>-1,45; 31,67</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-45,6; 462,12</t>
+          <t>-48,66; 341,74</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-50,28; 449,94</t>
+          <t>-55,55; 462,67</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-47,91; 843,36</t>
+          <t>-58,76; 646,64</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-65,48; 625,71</t>
+          <t>-67,13; 603,8</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-36,55; 906,0</t>
+          <t>-44,25; 1076,51</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 1703,62</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-29,11; 260,46</t>
+          <t>-26,38; 246,01</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-17,47; 356,3</t>
+          <t>-9,05; 317,49</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-9,42; 487,9</t>
+          <t>-15,61; 456,96</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP21B-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP21B-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,12 +901,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-85,68; 29,09</t>
+          <t>-100,0; 28,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-73,44; 40,01</t>
+          <t>-74,65; 39,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -916,32 +916,32 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-64,77; 0,0</t>
+          <t>-61,83; 0,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-64,77; 0,0</t>
+          <t>-61,83; 0,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-31,04; 83,93</t>
+          <t>-30,3; 83,93</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-57,66; 7,75</t>
+          <t>-53,24; 11,77</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-43,79; 23,06</t>
+          <t>-40,21; 23,14</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-43,65; 26,69</t>
+          <t>-42,93; 26,99</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-20,23; 41,23</t>
+          <t>-20,28; 40,19</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-26,93; 36,32</t>
+          <t>-26,7; 31,66</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-20,4; 65,21</t>
+          <t>-19,62; 62,26</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,21; 44,95</t>
+          <t>-9,15; 44,62</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,65; 46,08</t>
+          <t>-9,1; 46,8</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-32,75; 0,0</t>
+          <t>-32,65; 0,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-8,15; 30,02</t>
+          <t>-7,09; 32,08</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-7,96; 31,34</t>
+          <t>-7,98; 34,64</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-13,88; 46,91</t>
+          <t>-15,62; 45,81</t>
         </is>
       </c>
     </row>
@@ -1253,24 +1253,24 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-52,7; 731,33</t>
+          <t>-49,79; 775,48</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-63,34; 633,35</t>
+          <t>-62,51; 791,4</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 1045,93</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1333,12 +1333,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-17,49; 33,41</t>
+          <t>-20,07; 33,97</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-10,09; 90,25</t>
+          <t>-11,9; 90,29</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1358,22 +1358,22 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 76,93</t>
+          <t>0,0; 72,65</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-10,09; 26,04</t>
+          <t>-10,12; 25,2</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 56,18</t>
+          <t>-5,2; 59,52</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 69,39</t>
+          <t>-5,2; 72,55</t>
         </is>
       </c>
     </row>
@@ -1549,27 +1549,27 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-17,6; 38,26</t>
+          <t>-15,05; 40,09</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-18,6; 42,07</t>
+          <t>-18,66; 42,43</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-12,3; 74,91</t>
+          <t>-12,18; 66,15</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-58,17; 37,43</t>
+          <t>-48,98; 39,13</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-38,35; 60,83</t>
+          <t>-32,22; 71,11</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -1579,17 +1579,17 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-15,14; 30,03</t>
+          <t>-15,88; 28,3</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-16,93; 41,45</t>
+          <t>-13,22; 45,86</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-14,37; 63,21</t>
+          <t>-13,28; 63,63</t>
         </is>
       </c>
     </row>
@@ -1685,12 +1685,12 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-72,02; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 865,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-8,58; 19,9</t>
+          <t>-8,87; 20,21</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-6,92; 26,82</t>
+          <t>-7,63; 28,51</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-7,56; 39,91</t>
+          <t>-7,58; 38,33</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-8,86; 20,67</t>
+          <t>-7,19; 21,41</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 32,97</t>
+          <t>-3,29; 32,01</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 45,77</t>
+          <t>-7,45; 44,27</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 16,07</t>
+          <t>-3,64; 16,28</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 23,78</t>
+          <t>-0,92; 24,86</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 31,67</t>
+          <t>-1,95; 32,92</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-48,66; 341,74</t>
+          <t>-52,35; 374,37</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-55,55; 462,67</t>
+          <t>-56,37; 479,62</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-58,76; 646,64</t>
+          <t>-61,59; 587,73</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-67,13; 603,8</t>
+          <t>-60,45; 626,86</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-44,25; 1076,51</t>
+          <t>-32,86; 1019,23</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 1703,62</t>
+          <t>-100,0; 1376,09</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-26,38; 246,01</t>
+          <t>-26,07; 259,32</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-9,05; 317,49</t>
+          <t>-13,37; 372,86</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-15,61; 456,96</t>
+          <t>-21,36; 497,05</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP21B-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP21B-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,93</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,93</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>14,65</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-3,79</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>8,49</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-13,64</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,01</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-2,66</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,64; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,64; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,04; 77,58</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,87; 21,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,66; 40,31</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,94; 0,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,42; 12,14</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,13; 26,75</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,33; 28,84</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>98,12%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,76%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>62,21%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-56,43%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,62%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,76%</t>
         </is>
       </c>
     </row>
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-21,72</t>
+          <t>15,04</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-9,83</t>
+          <t>17,7</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-36,03</t>
+          <t>-10,63</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-14,93</t>
+          <t>6,18</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-14,93</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>15,38</t>
+          <t>16,5</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-14,44</t>
+          <t>11,39</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-6,65</t>
+          <t>10,37</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-9,64</t>
+          <t>9,33</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 28,43</t>
+          <t>-10,45; 41,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-74,65; 39,71</t>
+          <t>-6,87; 45,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 0,0</t>
+          <t>-37,11; 0,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-61,83; 0,0</t>
+          <t>-20,23; 39,98</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-61,83; 0,0</t>
+          <t>-20,87; 37,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-30,3; 83,93</t>
+          <t>-19,92; 66,6</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-53,24; 11,77</t>
+          <t>-6,45; 30,64</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-40,21; 23,14</t>
+          <t>-9,48; 31,8</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-42,93; 26,99</t>
+          <t>-12,42; 48,99</t>
         </is>
       </c>
     </row>
@@ -954,12 +954,12 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-60,28%</t>
+          <t>141,53%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-27,3%</t>
+          <t>166,57%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -969,32 +969,32 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>46,02%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-1,88%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>102,97%</t>
+          <t>122,84%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-65,27%</t>
+          <t>95,39%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-30,06%</t>
+          <t>86,88%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-43,56%</t>
+          <t>78,12%</t>
         </is>
       </c>
     </row>
@@ -1037,12 +1037,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,18; 713,98</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,95; 791,99</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>6,18</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>16,83</t>
+          <t>36,45</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>15,04</t>
+          <t>9,46</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>17,7</t>
+          <t>38,72</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-10,63</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>11,39</t>
+          <t>7,45</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>10,37</t>
+          <t>18,89</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>9,13</t>
+          <t>31,29</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-20,28; 40,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-26,7; 31,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-19,62; 62,26</t>
+          <t>0,0; 82,28</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-9,15; 44,62</t>
+          <t>-22,15; 32,92</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-9,1; 46,8</t>
+          <t>-10,54; 90,33</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-32,65; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-7,09; 32,08</t>
+          <t>-7,45; 22,37</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-7,98; 34,64</t>
+          <t>-5,13; 58,21</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-15,62; 45,81</t>
+          <t>-5,11; 77,66</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>46,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-1,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>125,24%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>141,53%</t>
+          <t>96,03%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>166,57%</t>
+          <t>393,06%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>95,39%</t>
+          <t>144,49%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>86,88%</t>
+          <t>366,09%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>76,48%</t>
+          <t>606,43%</t>
         </is>
       </c>
     </row>
@@ -1253,24 +1253,24 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-49,79; 775,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-62,51; 791,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 1045,93</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>9,46</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>38,72</t>
+          <t>23,59</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-19,06</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,48</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>37,98</t>
+          <t>26,6</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>7,45</t>
+          <t>6,99</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>18,89</t>
+          <t>14,32</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>32,82</t>
+          <t>19,43</t>
         </is>
       </c>
     </row>
@@ -1333,12 +1333,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-20,07; 33,97</t>
+          <t>-48,1; 38,14</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-11,9; 90,29</t>
+          <t>-39,27; 65,6</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1348,32 +1348,32 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,99; 42,78</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,93; 42,61</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 72,65</t>
+          <t>-12,2; 68,27</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-10,12; 25,2</t>
+          <t>-15,81; 28,58</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 59,52</t>
+          <t>-13,61; 42,34</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 72,55</t>
+          <t>-14,36; 59,6</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>96,03%</t>
+          <t>5,77%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>393,06%</t>
+          <t>123,78%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>77,63%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,97%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>217,87%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>144,49%</t>
+          <t>50,02%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>366,09%</t>
+          <t>102,44%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>636,24%</t>
+          <t>139,02%</t>
         </is>
       </c>
     </row>
@@ -1469,12 +1469,12 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,06; 708,38</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,54; 982,63</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1486,7 +1486,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>9,48</t>
+          <t>5,81</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>1,22</t>
+          <t>12,79</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>26,03</t>
+          <t>14,62</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>5,75</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>23,59</t>
+          <t>8,96</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-19,06</t>
+          <t>13,41</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>6,99</t>
+          <t>5,71</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>14,32</t>
+          <t>10,71</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>18,7</t>
+          <t>13,95</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-15,05; 40,09</t>
+          <t>-7,84; 20,88</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-18,66; 42,43</t>
+          <t>-2,99; 30,65</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-12,18; 66,15</t>
+          <t>-4,57; 47,15</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-48,98; 39,13</t>
+          <t>-7,8; 21,64</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-32,22; 71,11</t>
+          <t>-8,19; 29,06</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,97; 44,01</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-15,88; 28,3</t>
+          <t>-4,16; 16,49</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-13,22; 45,86</t>
+          <t>-1,7; 23,43</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-13,28; 63,63</t>
+          <t>-0,86; 32,18</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>77,63%</t>
+          <t>59,82%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>9,97%</t>
+          <t>131,59%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>213,23%</t>
+          <t>150,45%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>5,77%</t>
+          <t>46,89%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>123,78%</t>
+          <t>72,98%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>109,29%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>50,02%</t>
+          <t>51,12%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>102,44%</t>
+          <t>95,94%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>133,85%</t>
+          <t>124,94%</t>
         </is>
       </c>
     </row>
@@ -1655,12 +1655,12 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,48; 625,71</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,55; 906,0</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -1670,260 +1670,44 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,6; 462,12</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,28; 449,94</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,02; 824,56</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,11; 260,46</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,47; 356,3</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,32; 477,27</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>5,75</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>8,96</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>13,64</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>5,81</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>12,79</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>15,32</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>5,71</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>10,71</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>14,36</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-8,87; 20,21</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-7,63; 28,51</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-7,58; 38,33</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-7,19; 21,41</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-3,29; 32,01</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-7,45; 44,27</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>-3,64; 16,28</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>-0,92; 24,86</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>-1,95; 32,92</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>46,89%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>72,98%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>111,11%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>59,82%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>131,59%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>157,69%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>51,12%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>95,94%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>128,66%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-52,35; 374,37</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-56,37; 479,62</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-61,59; 587,73</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-60,45; 626,86</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-32,86; 1019,23</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 1376,09</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>-26,07; 259,32</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>-13,37; 372,86</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>-21,36; 497,05</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
